--- a/src/main/java/com/haisheng/framework/testng/bigScreen/itemCms/common/multimedia/file/楼层.xlsx
+++ b/src/main/java/com/haisheng/framework/testng/bigScreen/itemCms/common/multimedia/file/楼层.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JetBrains\IntelliJ IDEAProjects\interface-test-framework\src\main\java\com\haisheng\framework\testng\bigScreen\itemCms\common\multimedia\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F1F2F19-11C4-43E0-81B8-8C9929AA8348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B58AF1CC-6893-48CD-9B24-51CB2E0998C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="540" windowWidth="19296" windowHeight="11376" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="996" yWindow="300" windowWidth="19296" windowHeight="11376" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="B5" sheetId="1" r:id="rId1"/>
@@ -9137,8 +9137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.21875" defaultRowHeight="30" customHeight="1"/>
@@ -9179,7 +9179,9 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="30" customHeight="1">
-      <c r="A2" s="4"/>
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
       <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
@@ -9206,7 +9208,9 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="30" customHeight="1">
-      <c r="A3" s="9"/>
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
       <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
@@ -9233,7 +9237,9 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="30" customHeight="1">
-      <c r="A4" s="9"/>
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
       <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
@@ -9258,7 +9264,9 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="30" customHeight="1">
-      <c r="A5" s="9"/>
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
@@ -9283,7 +9291,9 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="30" customHeight="1">
-      <c r="A6" s="9"/>
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
       <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
@@ -9306,7 +9316,9 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="30" customHeight="1">
-      <c r="A7" s="9"/>
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
       <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
@@ -9331,7 +9343,9 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="30" customHeight="1">
-      <c r="A8" s="9"/>
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
       <c r="B8" s="5" t="s">
         <v>7</v>
       </c>
@@ -9356,7 +9370,9 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="30" customHeight="1">
-      <c r="A9" s="9"/>
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
       <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
@@ -9381,7 +9397,9 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="30" customHeight="1">
-      <c r="A10" s="9"/>
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
@@ -9406,7 +9424,9 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="30" customHeight="1">
-      <c r="A11" s="9"/>
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
       <c r="B11" s="5" t="s">
         <v>7</v>
       </c>
@@ -9431,7 +9451,9 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="30" customHeight="1">
-      <c r="A12" s="9"/>
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
       <c r="B12" s="5" t="s">
         <v>7</v>
       </c>
@@ -9456,7 +9478,9 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="30" customHeight="1">
-      <c r="A13" s="9"/>
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
       <c r="B13" s="5" t="s">
         <v>7</v>
       </c>
